--- a/Susan's Watering Experiment - with corrections 2015.xlsx
+++ b/Susan's Watering Experiment - with corrections 2015.xlsx
@@ -1,15 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="-60" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Plots" sheetId="2" r:id="rId1"/>
     <sheet name="Species" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plots!$A$1:$CV$101</definedName>
+  </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -502,13 +505,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="103">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -950,26 +954,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:CV101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="CC88" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="CV101" sqref="A1:CV101"/>
+      <selection pane="bottomRight" activeCell="CT18" sqref="CT18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="55" max="55" width="11" customWidth="1"/>
-    <col min="56" max="56" width="10.6640625" customWidth="1"/>
-    <col min="86" max="86" width="10" customWidth="1"/>
-    <col min="87" max="87" width="9.5" customWidth="1"/>
-    <col min="88" max="88" width="10" customWidth="1"/>
-    <col min="89" max="89" width="10.6640625" customWidth="1"/>
-    <col min="90" max="90" width="11" customWidth="1"/>
-    <col min="91" max="92" width="10.33203125" customWidth="1"/>
-    <col min="93" max="93" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="2"/>
+    <col min="12" max="12" width="15.5" style="2" customWidth="1"/>
+    <col min="13" max="53" width="0" hidden="1" customWidth="1"/>
+    <col min="54" max="54" width="8.83203125" style="2"/>
+    <col min="55" max="55" width="11" hidden="1" customWidth="1"/>
+    <col min="56" max="56" width="10.6640625" hidden="1" customWidth="1"/>
+    <col min="57" max="82" width="0" hidden="1" customWidth="1"/>
+    <col min="83" max="83" width="8.83203125" style="2"/>
+    <col min="84" max="85" width="0" hidden="1" customWidth="1"/>
+    <col min="86" max="86" width="10" hidden="1" customWidth="1"/>
+    <col min="87" max="87" width="9.5" hidden="1" customWidth="1"/>
+    <col min="88" max="88" width="10" hidden="1" customWidth="1"/>
+    <col min="89" max="89" width="10.6640625" hidden="1" customWidth="1"/>
+    <col min="90" max="90" width="11" hidden="1" customWidth="1"/>
+    <col min="91" max="92" width="10.33203125" hidden="1" customWidth="1"/>
+    <col min="93" max="93" width="11.6640625" hidden="1" customWidth="1"/>
+    <col min="94" max="95" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:100">
@@ -997,7 +1010,7 @@
       <c r="H1" t="s">
         <v>82</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J1" t="s">
@@ -1006,7 +1019,7 @@
       <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="M1" t="s">
@@ -1132,7 +1145,7 @@
       <c r="BA1" t="s">
         <v>3</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BB1" s="2" t="s">
         <v>24</v>
       </c>
       <c r="BC1" t="s">
@@ -1219,7 +1232,7 @@
       <c r="CD1" t="s">
         <v>62</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CE1" s="2" t="s">
         <v>97</v>
       </c>
       <c r="CF1" t="s">
@@ -1274,7 +1287,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:100">
+    <row r="2" spans="1:100" hidden="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1576,7 +1589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:100">
+    <row r="3" spans="1:100" hidden="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1878,7 +1891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:100">
+    <row r="4" spans="1:100" hidden="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2180,7 +2193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:100">
+    <row r="5" spans="1:100" hidden="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2507,7 +2520,7 @@
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
         <v>80</v>
       </c>
       <c r="J6">
@@ -2516,7 +2529,7 @@
       <c r="K6">
         <v>0</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="2">
         <v>4</v>
       </c>
       <c r="M6">
@@ -2642,7 +2655,7 @@
       <c r="BA6">
         <v>2</v>
       </c>
-      <c r="BB6">
+      <c r="BB6" s="2">
         <v>0</v>
       </c>
       <c r="BC6">
@@ -2729,7 +2742,7 @@
       <c r="CD6">
         <v>0</v>
       </c>
-      <c r="CE6">
+      <c r="CE6" s="2">
         <v>0</v>
       </c>
       <c r="CF6">
@@ -2809,7 +2822,7 @@
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <v>75</v>
       </c>
       <c r="J7">
@@ -2818,7 +2831,7 @@
       <c r="K7">
         <v>0</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="2">
         <v>1</v>
       </c>
       <c r="M7">
@@ -2944,7 +2957,7 @@
       <c r="BA7">
         <v>0</v>
       </c>
-      <c r="BB7">
+      <c r="BB7" s="2">
         <v>0</v>
       </c>
       <c r="BC7">
@@ -3031,7 +3044,7 @@
       <c r="CD7">
         <v>0</v>
       </c>
-      <c r="CE7">
+      <c r="CE7" s="2">
         <v>0</v>
       </c>
       <c r="CF7">
@@ -3086,7 +3099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:100">
+    <row r="8" spans="1:100" hidden="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3388,7 +3401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:100">
+    <row r="9" spans="1:100" hidden="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3690,7 +3703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:100">
+    <row r="10" spans="1:100" hidden="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3992,7 +4005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:100">
+    <row r="11" spans="1:100" hidden="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4294,7 +4307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:100">
+    <row r="12" spans="1:100" hidden="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4596,7 +4609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:100">
+    <row r="13" spans="1:100" hidden="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4898,7 +4911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:100">
+    <row r="14" spans="1:100" hidden="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -5200,7 +5213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:100">
+    <row r="15" spans="1:100" hidden="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -5527,7 +5540,7 @@
       <c r="H16">
         <v>0</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="2">
         <v>0</v>
       </c>
       <c r="J16">
@@ -5536,7 +5549,7 @@
       <c r="K16">
         <v>0</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="2">
         <v>1</v>
       </c>
       <c r="M16">
@@ -5662,7 +5675,7 @@
       <c r="BA16" s="3">
         <v>0</v>
       </c>
-      <c r="BB16" s="3">
+      <c r="BB16" s="6">
         <v>0</v>
       </c>
       <c r="BC16">
@@ -5749,7 +5762,7 @@
       <c r="CD16" s="3">
         <v>0</v>
       </c>
-      <c r="CE16">
+      <c r="CE16" s="2">
         <v>0</v>
       </c>
       <c r="CF16" s="3">
@@ -5829,7 +5842,7 @@
       <c r="H17">
         <v>0</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="2">
         <v>10</v>
       </c>
       <c r="J17">
@@ -5838,7 +5851,7 @@
       <c r="K17">
         <v>0</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="2">
         <v>0</v>
       </c>
       <c r="M17">
@@ -5964,7 +5977,7 @@
       <c r="BA17" s="3">
         <v>0</v>
       </c>
-      <c r="BB17" s="3">
+      <c r="BB17" s="6">
         <v>0</v>
       </c>
       <c r="BC17">
@@ -6131,7 +6144,7 @@
       <c r="H18">
         <v>0.2</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="2">
         <v>20</v>
       </c>
       <c r="J18">
@@ -6140,7 +6153,7 @@
       <c r="K18">
         <v>0</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="2">
         <v>1</v>
       </c>
       <c r="M18">
@@ -6266,7 +6279,7 @@
       <c r="BA18" s="3">
         <v>0</v>
       </c>
-      <c r="BB18" s="3">
+      <c r="BB18" s="6">
         <v>0</v>
       </c>
       <c r="BC18">
@@ -6433,7 +6446,7 @@
       <c r="H19">
         <v>0</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="2">
         <v>0</v>
       </c>
       <c r="J19">
@@ -6442,7 +6455,7 @@
       <c r="K19">
         <v>0</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="2">
         <v>60</v>
       </c>
       <c r="M19">
@@ -6568,7 +6581,7 @@
       <c r="BA19" s="3">
         <v>0</v>
       </c>
-      <c r="BB19" s="3">
+      <c r="BB19" s="6">
         <v>0</v>
       </c>
       <c r="BC19">
@@ -6655,7 +6668,7 @@
       <c r="CD19" s="3">
         <v>0</v>
       </c>
-      <c r="CE19">
+      <c r="CE19" s="2">
         <v>0</v>
       </c>
       <c r="CF19" s="3">
@@ -6735,7 +6748,7 @@
       <c r="H20">
         <v>0.1</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="2">
         <v>0</v>
       </c>
       <c r="J20">
@@ -6744,7 +6757,7 @@
       <c r="K20">
         <v>0</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="2">
         <v>0</v>
       </c>
       <c r="M20">
@@ -6870,7 +6883,7 @@
       <c r="BA20" s="3">
         <v>0</v>
       </c>
-      <c r="BB20" s="3">
+      <c r="BB20" s="6">
         <v>0</v>
       </c>
       <c r="BC20">
@@ -6957,7 +6970,7 @@
       <c r="CD20" s="3">
         <v>0</v>
       </c>
-      <c r="CE20">
+      <c r="CE20" s="2">
         <v>0</v>
       </c>
       <c r="CF20" s="3">
@@ -7037,7 +7050,7 @@
       <c r="H21">
         <v>0.1</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="2">
         <v>0</v>
       </c>
       <c r="J21">
@@ -7046,7 +7059,7 @@
       <c r="K21">
         <v>0</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="2">
         <v>15</v>
       </c>
       <c r="M21">
@@ -7172,7 +7185,7 @@
       <c r="BA21" s="3">
         <v>0</v>
       </c>
-      <c r="BB21" s="3">
+      <c r="BB21" s="6">
         <v>0</v>
       </c>
       <c r="BD21">
@@ -7256,7 +7269,7 @@
       <c r="CD21" s="3">
         <v>0.1</v>
       </c>
-      <c r="CE21">
+      <c r="CE21" s="2">
         <v>0</v>
       </c>
       <c r="CF21" s="3">
@@ -7311,7 +7324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:100">
+    <row r="22" spans="1:100" hidden="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -7613,7 +7626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:100">
+    <row r="23" spans="1:100" hidden="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -7940,7 +7953,7 @@
       <c r="H24">
         <v>0</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="2">
         <v>70</v>
       </c>
       <c r="J24">
@@ -7949,7 +7962,7 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="2">
         <v>1</v>
       </c>
       <c r="M24">
@@ -8075,7 +8088,7 @@
       <c r="BA24">
         <v>0</v>
       </c>
-      <c r="BB24">
+      <c r="BB24" s="2">
         <v>0</v>
       </c>
       <c r="BC24">
@@ -8162,7 +8175,7 @@
       <c r="CD24">
         <v>0</v>
       </c>
-      <c r="CE24">
+      <c r="CE24" s="2">
         <v>0</v>
       </c>
       <c r="CF24">
@@ -8242,7 +8255,7 @@
       <c r="H25">
         <v>0</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="2">
         <v>15</v>
       </c>
       <c r="J25">
@@ -8251,7 +8264,7 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="2">
         <v>10</v>
       </c>
       <c r="M25">
@@ -8377,7 +8390,7 @@
       <c r="BA25">
         <v>0</v>
       </c>
-      <c r="BB25">
+      <c r="BB25" s="2">
         <v>0</v>
       </c>
       <c r="BC25">
@@ -8464,7 +8477,7 @@
       <c r="CD25">
         <v>0</v>
       </c>
-      <c r="CE25">
+      <c r="CE25" s="2">
         <v>0</v>
       </c>
       <c r="CF25">
@@ -8519,7 +8532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:100">
+    <row r="26" spans="1:100" hidden="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -8821,7 +8834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:100">
+    <row r="27" spans="1:100" hidden="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -9123,7 +9136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:100">
+    <row r="28" spans="1:100" hidden="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -9425,7 +9438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:100">
+    <row r="29" spans="1:100" hidden="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -9752,7 +9765,7 @@
       <c r="H30">
         <v>0</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="2">
         <v>2</v>
       </c>
       <c r="J30">
@@ -9761,7 +9774,7 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="2">
         <v>0</v>
       </c>
       <c r="M30">
@@ -9887,7 +9900,7 @@
       <c r="BA30">
         <v>0</v>
       </c>
-      <c r="BB30">
+      <c r="BB30" s="2">
         <v>0</v>
       </c>
       <c r="BC30">
@@ -9974,7 +9987,7 @@
       <c r="CD30">
         <v>0</v>
       </c>
-      <c r="CE30">
+      <c r="CE30" s="2">
         <v>0</v>
       </c>
       <c r="CF30">
@@ -10054,7 +10067,7 @@
       <c r="H31">
         <v>0</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="2">
         <v>4</v>
       </c>
       <c r="J31">
@@ -10063,7 +10076,7 @@
       <c r="K31">
         <v>0</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="2">
         <v>1</v>
       </c>
       <c r="M31">
@@ -10189,7 +10202,7 @@
       <c r="BA31">
         <v>0</v>
       </c>
-      <c r="BB31" s="3">
+      <c r="BB31" s="6">
         <v>0</v>
       </c>
       <c r="BC31" s="3">
@@ -10276,7 +10289,7 @@
       <c r="CD31" s="3">
         <v>0</v>
       </c>
-      <c r="CE31" s="3">
+      <c r="CE31" s="6">
         <v>0</v>
       </c>
       <c r="CF31" s="3">
@@ -10331,7 +10344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:100">
+    <row r="32" spans="1:100" hidden="1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -10633,7 +10646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:100">
+    <row r="33" spans="1:100" hidden="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -10935,7 +10948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:100">
+    <row r="34" spans="1:100" hidden="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -11237,7 +11250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:100">
+    <row r="35" spans="1:100" hidden="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -11539,7 +11552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:100">
+    <row r="36" spans="1:100" hidden="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -11841,7 +11854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:100">
+    <row r="37" spans="1:100" hidden="1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -12168,7 +12181,7 @@
       <c r="H38">
         <v>0</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="2">
         <v>0</v>
       </c>
       <c r="J38">
@@ -12177,7 +12190,7 @@
       <c r="K38" s="3">
         <v>0</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="2">
         <v>0</v>
       </c>
       <c r="M38" s="3">
@@ -12303,7 +12316,7 @@
       <c r="BA38">
         <v>4</v>
       </c>
-      <c r="BB38" s="3">
+      <c r="BB38" s="6">
         <v>0</v>
       </c>
       <c r="BC38">
@@ -12390,7 +12403,7 @@
       <c r="CD38" s="3">
         <v>0</v>
       </c>
-      <c r="CE38" s="3">
+      <c r="CE38" s="6">
         <v>0</v>
       </c>
       <c r="CF38" s="3">
@@ -12470,7 +12483,7 @@
       <c r="H39">
         <v>0</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="2">
         <v>0</v>
       </c>
       <c r="J39">
@@ -12479,7 +12492,7 @@
       <c r="K39" s="3">
         <v>0</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="2">
         <v>0</v>
       </c>
       <c r="M39" s="3">
@@ -12605,7 +12618,7 @@
       <c r="BA39">
         <v>4</v>
       </c>
-      <c r="BB39" s="3">
+      <c r="BB39" s="6">
         <v>0</v>
       </c>
       <c r="BC39">
@@ -12692,7 +12705,7 @@
       <c r="CD39" s="3">
         <v>0</v>
       </c>
-      <c r="CE39" s="3">
+      <c r="CE39" s="6">
         <v>0</v>
       </c>
       <c r="CF39" s="3">
@@ -12747,7 +12760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:100">
+    <row r="40" spans="1:100" hidden="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -13049,7 +13062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:100">
+    <row r="41" spans="1:100" hidden="1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -13351,7 +13364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:100">
+    <row r="42" spans="1:100" hidden="1">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -13653,7 +13666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:100">
+    <row r="43" spans="1:100" hidden="1">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -13955,7 +13968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:100">
+    <row r="44" spans="1:100" hidden="1">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -14257,7 +14270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:100">
+    <row r="45" spans="1:100" hidden="1">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -14559,7 +14572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:100">
+    <row r="46" spans="1:100" hidden="1">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -14861,7 +14874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:100">
+    <row r="47" spans="1:100" hidden="1">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -15163,7 +15176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:100">
+    <row r="48" spans="1:100" hidden="1">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -15465,7 +15478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:100">
+    <row r="49" spans="1:100" hidden="1">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -15792,7 +15805,7 @@
       <c r="H50">
         <v>0</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="2">
         <v>65</v>
       </c>
       <c r="J50">
@@ -15801,7 +15814,7 @@
       <c r="K50">
         <v>0</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="2">
         <v>0</v>
       </c>
       <c r="M50">
@@ -15927,7 +15940,7 @@
       <c r="BA50">
         <v>7</v>
       </c>
-      <c r="BB50">
+      <c r="BB50" s="2">
         <v>0</v>
       </c>
       <c r="BC50" s="3">
@@ -16014,7 +16027,7 @@
       <c r="CD50" s="3">
         <v>0</v>
       </c>
-      <c r="CE50" s="3">
+      <c r="CE50" s="6">
         <v>0</v>
       </c>
       <c r="CF50" s="3">
@@ -16094,7 +16107,7 @@
       <c r="H51">
         <v>0</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="2">
         <v>65</v>
       </c>
       <c r="J51">
@@ -16103,7 +16116,7 @@
       <c r="K51">
         <v>0</v>
       </c>
-      <c r="L51">
+      <c r="L51" s="2">
         <v>0</v>
       </c>
       <c r="M51">
@@ -16229,7 +16242,7 @@
       <c r="BA51">
         <v>5</v>
       </c>
-      <c r="BB51">
+      <c r="BB51" s="2">
         <v>0</v>
       </c>
       <c r="BC51" s="3">
@@ -16316,7 +16329,7 @@
       <c r="CD51" s="3">
         <v>0</v>
       </c>
-      <c r="CE51" s="3">
+      <c r="CE51" s="6">
         <v>0</v>
       </c>
       <c r="CF51" s="3">
@@ -16371,7 +16384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:100">
+    <row r="52" spans="1:100" hidden="1">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -16673,7 +16686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:100">
+    <row r="53" spans="1:100" hidden="1">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -16975,7 +16988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:100">
+    <row r="54" spans="1:100" hidden="1">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -17277,7 +17290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:100">
+    <row r="55" spans="1:100" hidden="1">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -17604,7 +17617,7 @@
       <c r="H56">
         <v>0</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="2">
         <v>0</v>
       </c>
       <c r="J56">
@@ -17613,7 +17626,7 @@
       <c r="K56" s="3">
         <v>0</v>
       </c>
-      <c r="L56">
+      <c r="L56" s="2">
         <v>0.1</v>
       </c>
       <c r="M56" s="3">
@@ -17739,7 +17752,7 @@
       <c r="BA56">
         <v>8</v>
       </c>
-      <c r="BB56">
+      <c r="BB56" s="2">
         <v>0</v>
       </c>
       <c r="BC56" s="3">
@@ -17826,7 +17839,7 @@
       <c r="CD56" s="3">
         <v>0</v>
       </c>
-      <c r="CE56" s="3">
+      <c r="CE56" s="6">
         <v>0</v>
       </c>
       <c r="CF56" s="3">
@@ -17906,7 +17919,7 @@
       <c r="H57">
         <v>0</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="2">
         <v>0</v>
       </c>
       <c r="J57">
@@ -17915,7 +17928,7 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-      <c r="L57">
+      <c r="L57" s="2">
         <v>0</v>
       </c>
       <c r="M57" s="3">
@@ -18041,7 +18054,7 @@
       <c r="BA57">
         <v>2</v>
       </c>
-      <c r="BB57">
+      <c r="BB57" s="2">
         <v>0</v>
       </c>
       <c r="BC57" s="3">
@@ -18128,7 +18141,7 @@
       <c r="CD57" s="3">
         <v>0</v>
       </c>
-      <c r="CE57" s="3">
+      <c r="CE57" s="6">
         <v>0</v>
       </c>
       <c r="CF57" s="3">
@@ -18183,7 +18196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:100">
+    <row r="58" spans="1:100" hidden="1">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -18485,7 +18498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:100">
+    <row r="59" spans="1:100" hidden="1">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -18812,7 +18825,7 @@
       <c r="H60">
         <v>0</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="2">
         <v>0</v>
       </c>
       <c r="J60">
@@ -18821,7 +18834,7 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-      <c r="L60">
+      <c r="L60" s="2">
         <v>0.1</v>
       </c>
       <c r="M60" s="3">
@@ -18947,7 +18960,7 @@
       <c r="BA60">
         <v>2</v>
       </c>
-      <c r="BB60">
+      <c r="BB60" s="2">
         <v>0</v>
       </c>
       <c r="BC60" s="3">
@@ -19034,7 +19047,7 @@
       <c r="CD60" s="3">
         <v>0</v>
       </c>
-      <c r="CE60" s="3">
+      <c r="CE60" s="6">
         <v>0</v>
       </c>
       <c r="CF60" s="3">
@@ -19114,7 +19127,7 @@
       <c r="H61">
         <v>0</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="2">
         <v>0</v>
       </c>
       <c r="J61">
@@ -19123,7 +19136,7 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61">
+      <c r="L61" s="2">
         <v>0.1</v>
       </c>
       <c r="M61" s="3">
@@ -19249,7 +19262,7 @@
       <c r="BA61">
         <v>3</v>
       </c>
-      <c r="BB61">
+      <c r="BB61" s="2">
         <v>6</v>
       </c>
       <c r="BC61" s="3">
@@ -19336,7 +19349,7 @@
       <c r="CD61" s="3">
         <v>0</v>
       </c>
-      <c r="CE61" s="3">
+      <c r="CE61" s="6">
         <v>0</v>
       </c>
       <c r="CF61" s="3">
@@ -19391,7 +19404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:100">
+    <row r="62" spans="1:100" hidden="1">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -19693,7 +19706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:100">
+    <row r="63" spans="1:100" hidden="1">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -19995,7 +20008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:100">
+    <row r="64" spans="1:100" hidden="1">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -20297,7 +20310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:100">
+    <row r="65" spans="1:100" hidden="1">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -20599,7 +20612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:100">
+    <row r="66" spans="1:100" hidden="1">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -20901,7 +20914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:100">
+    <row r="67" spans="1:100" hidden="1">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -21203,7 +21216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:100">
+    <row r="68" spans="1:100" hidden="1">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -21505,7 +21518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:100">
+    <row r="69" spans="1:100" hidden="1">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -21807,7 +21820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:100">
+    <row r="70" spans="1:100" hidden="1">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -22109,7 +22122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:100">
+    <row r="71" spans="1:100" hidden="1">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -22411,7 +22424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:100">
+    <row r="72" spans="1:100" hidden="1">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -22713,7 +22726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:100">
+    <row r="73" spans="1:100" hidden="1">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -23015,7 +23028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:100">
+    <row r="74" spans="1:100" hidden="1">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -23317,7 +23330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:100">
+    <row r="75" spans="1:100" hidden="1">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -23619,7 +23632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:100">
+    <row r="76" spans="1:100" hidden="1">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -23921,7 +23934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:100">
+    <row r="77" spans="1:100" hidden="1">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -24223,7 +24236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:100">
+    <row r="78" spans="1:100" hidden="1">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -24525,7 +24538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:100">
+    <row r="79" spans="1:100" hidden="1">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -24827,7 +24840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:100">
+    <row r="80" spans="1:100" hidden="1">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -25129,7 +25142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:100">
+    <row r="81" spans="1:100" hidden="1">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -25456,7 +25469,7 @@
       <c r="H82">
         <v>0.1</v>
       </c>
-      <c r="I82">
+      <c r="I82" s="2">
         <v>50</v>
       </c>
       <c r="J82">
@@ -25465,7 +25478,7 @@
       <c r="K82">
         <v>0</v>
       </c>
-      <c r="L82">
+      <c r="L82" s="2">
         <v>1</v>
       </c>
       <c r="M82">
@@ -25591,7 +25604,7 @@
       <c r="BA82">
         <v>0</v>
       </c>
-      <c r="BB82">
+      <c r="BB82" s="2">
         <v>0</v>
       </c>
       <c r="BC82">
@@ -25678,7 +25691,7 @@
       <c r="CD82">
         <v>0</v>
       </c>
-      <c r="CE82">
+      <c r="CE82" s="2">
         <v>0</v>
       </c>
       <c r="CF82">
@@ -25758,7 +25771,7 @@
       <c r="H83">
         <v>1.5</v>
       </c>
-      <c r="I83">
+      <c r="I83" s="2">
         <v>35</v>
       </c>
       <c r="J83">
@@ -25767,7 +25780,7 @@
       <c r="K83">
         <v>0</v>
       </c>
-      <c r="L83">
+      <c r="L83" s="2">
         <v>1</v>
       </c>
       <c r="M83">
@@ -25893,7 +25906,7 @@
       <c r="BA83">
         <v>0</v>
       </c>
-      <c r="BB83">
+      <c r="BB83" s="2">
         <v>0</v>
       </c>
       <c r="BC83">
@@ -25980,7 +25993,7 @@
       <c r="CD83">
         <v>0</v>
       </c>
-      <c r="CE83">
+      <c r="CE83" s="2">
         <v>0</v>
       </c>
       <c r="CF83">
@@ -26060,7 +26073,7 @@
       <c r="H84">
         <v>0</v>
       </c>
-      <c r="I84">
+      <c r="I84" s="2">
         <v>55</v>
       </c>
       <c r="J84">
@@ -26069,7 +26082,7 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84">
+      <c r="L84" s="2">
         <v>0</v>
       </c>
       <c r="M84">
@@ -26195,7 +26208,7 @@
       <c r="BA84">
         <v>0</v>
       </c>
-      <c r="BB84" s="3">
+      <c r="BB84" s="6">
         <v>0</v>
       </c>
       <c r="BC84">
@@ -26282,7 +26295,7 @@
       <c r="CD84">
         <v>0</v>
       </c>
-      <c r="CE84" s="3">
+      <c r="CE84" s="6">
         <v>0</v>
       </c>
       <c r="CF84" s="3">
@@ -26362,7 +26375,7 @@
       <c r="H85">
         <v>0</v>
       </c>
-      <c r="I85">
+      <c r="I85" s="2">
         <v>0</v>
       </c>
       <c r="J85">
@@ -26371,7 +26384,7 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85">
+      <c r="L85" s="2">
         <v>0.1</v>
       </c>
       <c r="M85">
@@ -26497,7 +26510,7 @@
       <c r="BA85">
         <v>0</v>
       </c>
-      <c r="BB85" s="3">
+      <c r="BB85" s="6">
         <v>0</v>
       </c>
       <c r="BC85">
@@ -26584,7 +26597,7 @@
       <c r="CD85">
         <v>0</v>
       </c>
-      <c r="CE85" s="3">
+      <c r="CE85" s="6">
         <v>0</v>
       </c>
       <c r="CF85" s="3">
@@ -26664,7 +26677,7 @@
       <c r="H86">
         <v>0</v>
       </c>
-      <c r="I86" s="3">
+      <c r="I86" s="6">
         <v>0</v>
       </c>
       <c r="J86">
@@ -26673,7 +26686,7 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86">
+      <c r="L86" s="2">
         <v>6</v>
       </c>
       <c r="M86" s="3">
@@ -26799,7 +26812,7 @@
       <c r="BA86" s="3">
         <v>0</v>
       </c>
-      <c r="BB86" s="3">
+      <c r="BB86" s="6">
         <v>50</v>
       </c>
       <c r="BC86" s="3">
@@ -26886,7 +26899,7 @@
       <c r="CD86">
         <v>0</v>
       </c>
-      <c r="CE86">
+      <c r="CE86" s="2">
         <v>40</v>
       </c>
       <c r="CF86">
@@ -26966,7 +26979,7 @@
       <c r="H87">
         <v>0</v>
       </c>
-      <c r="I87" s="3">
+      <c r="I87" s="6">
         <v>0</v>
       </c>
       <c r="J87">
@@ -26975,7 +26988,7 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87">
+      <c r="L87" s="2">
         <v>5</v>
       </c>
       <c r="M87" s="3">
@@ -27101,7 +27114,7 @@
       <c r="BA87" s="3">
         <v>0</v>
       </c>
-      <c r="BB87" s="3">
+      <c r="BB87" s="6">
         <v>70</v>
       </c>
       <c r="BC87" s="3">
@@ -27188,7 +27201,7 @@
       <c r="CD87">
         <v>0</v>
       </c>
-      <c r="CE87">
+      <c r="CE87" s="2">
         <v>70</v>
       </c>
       <c r="CF87">
@@ -27268,7 +27281,7 @@
       <c r="H88">
         <v>0.1</v>
       </c>
-      <c r="I88" s="3">
+      <c r="I88" s="6">
         <v>0</v>
       </c>
       <c r="J88">
@@ -27277,7 +27290,7 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88">
+      <c r="L88" s="2">
         <v>7</v>
       </c>
       <c r="M88" s="3">
@@ -27403,7 +27416,7 @@
       <c r="BA88" s="3">
         <v>0</v>
       </c>
-      <c r="BB88" s="3">
+      <c r="BB88" s="6">
         <v>80</v>
       </c>
       <c r="BC88" s="3">
@@ -27490,7 +27503,7 @@
       <c r="CD88">
         <v>0</v>
       </c>
-      <c r="CE88">
+      <c r="CE88" s="2">
         <v>1</v>
       </c>
       <c r="CF88">
@@ -27570,7 +27583,7 @@
       <c r="H89">
         <v>0</v>
       </c>
-      <c r="I89" s="3">
+      <c r="I89" s="6">
         <v>0</v>
       </c>
       <c r="J89">
@@ -27579,7 +27592,7 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-      <c r="L89">
+      <c r="L89" s="2">
         <v>3</v>
       </c>
       <c r="M89" s="3">
@@ -27705,7 +27718,7 @@
       <c r="BA89" s="3">
         <v>0</v>
       </c>
-      <c r="BB89" s="3">
+      <c r="BB89" s="6">
         <v>80</v>
       </c>
       <c r="BC89" s="3">
@@ -27792,7 +27805,7 @@
       <c r="CD89">
         <v>0</v>
       </c>
-      <c r="CE89">
+      <c r="CE89" s="2">
         <v>5</v>
       </c>
       <c r="CF89">
@@ -27872,7 +27885,7 @@
       <c r="H90">
         <v>0</v>
       </c>
-      <c r="I90" s="3">
+      <c r="I90" s="6">
         <v>0</v>
       </c>
       <c r="J90">
@@ -27881,7 +27894,7 @@
       <c r="K90" s="3">
         <v>0</v>
       </c>
-      <c r="L90">
+      <c r="L90" s="2">
         <v>4</v>
       </c>
       <c r="M90" s="3">
@@ -28007,7 +28020,7 @@
       <c r="BA90" s="3">
         <v>0</v>
       </c>
-      <c r="BB90" s="3">
+      <c r="BB90" s="6">
         <v>2</v>
       </c>
       <c r="BC90" s="3">
@@ -28094,7 +28107,7 @@
       <c r="CD90">
         <v>0</v>
       </c>
-      <c r="CE90">
+      <c r="CE90" s="2">
         <v>3</v>
       </c>
       <c r="CF90">
@@ -28174,7 +28187,7 @@
       <c r="H91">
         <v>0.3</v>
       </c>
-      <c r="I91" s="3">
+      <c r="I91" s="6">
         <v>0</v>
       </c>
       <c r="J91">
@@ -28183,7 +28196,7 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91">
+      <c r="L91" s="2">
         <v>12</v>
       </c>
       <c r="M91" s="3">
@@ -28309,7 +28322,7 @@
       <c r="BA91" s="3">
         <v>0</v>
       </c>
-      <c r="BB91" s="3">
+      <c r="BB91" s="6">
         <v>4</v>
       </c>
       <c r="BC91" s="3">
@@ -28396,7 +28409,7 @@
       <c r="CD91">
         <v>0</v>
       </c>
-      <c r="CE91">
+      <c r="CE91" s="2">
         <v>1</v>
       </c>
       <c r="CF91">
@@ -28476,7 +28489,7 @@
       <c r="H92">
         <v>0</v>
       </c>
-      <c r="I92" s="3">
+      <c r="I92" s="6">
         <v>0</v>
       </c>
       <c r="J92">
@@ -28485,7 +28498,7 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92">
+      <c r="L92" s="2">
         <v>10</v>
       </c>
       <c r="M92" s="3">
@@ -28611,7 +28624,7 @@
       <c r="BA92" s="3">
         <v>0</v>
       </c>
-      <c r="BB92" s="3">
+      <c r="BB92" s="6">
         <v>55</v>
       </c>
       <c r="BC92" s="3">
@@ -28698,7 +28711,7 @@
       <c r="CD92">
         <v>0</v>
       </c>
-      <c r="CE92">
+      <c r="CE92" s="2">
         <v>0</v>
       </c>
       <c r="CF92">
@@ -28778,7 +28791,7 @@
       <c r="H93">
         <v>0.3</v>
       </c>
-      <c r="I93" s="3">
+      <c r="I93" s="6">
         <v>0</v>
       </c>
       <c r="J93">
@@ -28787,7 +28800,7 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93">
+      <c r="L93" s="2">
         <v>60</v>
       </c>
       <c r="M93" s="3">
@@ -28913,7 +28926,7 @@
       <c r="BA93" s="3">
         <v>0</v>
       </c>
-      <c r="BB93" s="3">
+      <c r="BB93" s="6">
         <v>45</v>
       </c>
       <c r="BC93" s="3">
@@ -29000,7 +29013,7 @@
       <c r="CD93">
         <v>0</v>
       </c>
-      <c r="CE93">
+      <c r="CE93" s="2">
         <v>0</v>
       </c>
       <c r="CF93">
@@ -29080,7 +29093,7 @@
       <c r="H94">
         <v>0.1</v>
       </c>
-      <c r="I94" s="3">
+      <c r="I94" s="6">
         <v>0</v>
       </c>
       <c r="J94">
@@ -29089,7 +29102,7 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94">
+      <c r="L94" s="2">
         <v>0</v>
       </c>
       <c r="M94" s="3">
@@ -29215,7 +29228,7 @@
       <c r="BA94" s="3">
         <v>0</v>
       </c>
-      <c r="BB94" s="3">
+      <c r="BB94" s="6">
         <v>90</v>
       </c>
       <c r="BC94" s="3">
@@ -29302,7 +29315,7 @@
       <c r="CD94">
         <v>0</v>
       </c>
-      <c r="CE94">
+      <c r="CE94" s="2">
         <v>8</v>
       </c>
       <c r="CF94">
@@ -29382,7 +29395,7 @@
       <c r="H95">
         <v>0.1</v>
       </c>
-      <c r="I95" s="3">
+      <c r="I95" s="6">
         <v>0</v>
       </c>
       <c r="J95">
@@ -29391,7 +29404,7 @@
       <c r="K95" s="3">
         <v>0</v>
       </c>
-      <c r="L95">
+      <c r="L95" s="2">
         <v>0</v>
       </c>
       <c r="M95" s="3">
@@ -29517,7 +29530,7 @@
       <c r="BA95" s="3">
         <v>0</v>
       </c>
-      <c r="BB95" s="3">
+      <c r="BB95" s="6">
         <v>90</v>
       </c>
       <c r="BC95" s="3">
@@ -29604,7 +29617,7 @@
       <c r="CD95">
         <v>0</v>
       </c>
-      <c r="CE95">
+      <c r="CE95" s="2">
         <v>2</v>
       </c>
       <c r="CF95">
@@ -29684,7 +29697,7 @@
       <c r="H96">
         <v>0</v>
       </c>
-      <c r="I96" s="3">
+      <c r="I96" s="6">
         <v>3</v>
       </c>
       <c r="J96">
@@ -29693,7 +29706,7 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96">
+      <c r="L96" s="2">
         <v>4</v>
       </c>
       <c r="M96" s="3">
@@ -29819,7 +29832,7 @@
       <c r="BA96" s="3">
         <v>0</v>
       </c>
-      <c r="BB96" s="3">
+      <c r="BB96" s="6">
         <v>90</v>
       </c>
       <c r="BC96" s="3">
@@ -29906,7 +29919,7 @@
       <c r="CD96">
         <v>0</v>
       </c>
-      <c r="CE96">
+      <c r="CE96" s="2">
         <v>25</v>
       </c>
       <c r="CF96">
@@ -29986,7 +29999,7 @@
       <c r="H97">
         <v>0.4</v>
       </c>
-      <c r="I97" s="3">
+      <c r="I97" s="6">
         <v>0</v>
       </c>
       <c r="J97">
@@ -29995,7 +30008,7 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97">
+      <c r="L97" s="2">
         <v>0</v>
       </c>
       <c r="M97" s="3">
@@ -30121,7 +30134,7 @@
       <c r="BA97" s="3">
         <v>0</v>
       </c>
-      <c r="BB97" s="3">
+      <c r="BB97" s="6">
         <v>85</v>
       </c>
       <c r="BC97" s="3">
@@ -30208,7 +30221,7 @@
       <c r="CD97">
         <v>0</v>
       </c>
-      <c r="CE97">
+      <c r="CE97" s="2">
         <v>1</v>
       </c>
       <c r="CF97">
@@ -30288,7 +30301,7 @@
       <c r="H98">
         <v>0</v>
       </c>
-      <c r="I98">
+      <c r="I98" s="2">
         <v>0</v>
       </c>
       <c r="J98">
@@ -30297,7 +30310,7 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98">
+      <c r="L98" s="2">
         <v>1</v>
       </c>
       <c r="M98" s="3">
@@ -30423,7 +30436,7 @@
       <c r="BA98">
         <v>1</v>
       </c>
-      <c r="BB98" s="3">
+      <c r="BB98" s="6">
         <v>0</v>
       </c>
       <c r="BC98">
@@ -30510,7 +30523,7 @@
       <c r="CD98" s="3">
         <v>0</v>
       </c>
-      <c r="CE98" s="3">
+      <c r="CE98" s="6">
         <v>0</v>
       </c>
       <c r="CF98" s="3">
@@ -30590,7 +30603,7 @@
       <c r="H99">
         <v>0</v>
       </c>
-      <c r="I99">
+      <c r="I99" s="2">
         <v>0</v>
       </c>
       <c r="J99">
@@ -30599,7 +30612,7 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99">
+      <c r="L99" s="2">
         <v>0</v>
       </c>
       <c r="M99" s="3">
@@ -30725,7 +30738,7 @@
       <c r="BA99">
         <v>1</v>
       </c>
-      <c r="BB99" s="3">
+      <c r="BB99" s="6">
         <v>0</v>
       </c>
       <c r="BC99">
@@ -30812,7 +30825,7 @@
       <c r="CD99" s="3">
         <v>0</v>
       </c>
-      <c r="CE99" s="3">
+      <c r="CE99" s="6">
         <v>0</v>
       </c>
       <c r="CF99" s="3">
@@ -30892,7 +30905,7 @@
       <c r="H100">
         <v>0</v>
       </c>
-      <c r="I100">
+      <c r="I100" s="2">
         <v>5</v>
       </c>
       <c r="J100">
@@ -30901,7 +30914,7 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-      <c r="L100">
+      <c r="L100" s="2">
         <v>0</v>
       </c>
       <c r="M100" s="3">
@@ -31027,7 +31040,7 @@
       <c r="BA100">
         <v>1</v>
       </c>
-      <c r="BB100" s="3">
+      <c r="BB100" s="6">
         <v>0</v>
       </c>
       <c r="BC100">
@@ -31114,7 +31127,7 @@
       <c r="CD100" s="3">
         <v>0</v>
       </c>
-      <c r="CE100" s="3">
+      <c r="CE100" s="6">
         <v>0</v>
       </c>
       <c r="CF100" s="3">
@@ -31194,7 +31207,7 @@
       <c r="H101">
         <v>0</v>
       </c>
-      <c r="I101">
+      <c r="I101" s="2">
         <v>0</v>
       </c>
       <c r="J101">
@@ -31203,7 +31216,7 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101">
+      <c r="L101" s="2">
         <v>0</v>
       </c>
       <c r="M101" s="3">
@@ -31329,7 +31342,7 @@
       <c r="BA101">
         <v>1</v>
       </c>
-      <c r="BB101" s="3">
+      <c r="BB101" s="6">
         <v>0</v>
       </c>
       <c r="BC101">
@@ -31416,7 +31429,7 @@
       <c r="CD101" s="3">
         <v>0</v>
       </c>
-      <c r="CE101" s="3">
+      <c r="CE101" s="6">
         <v>0</v>
       </c>
       <c r="CF101" s="3">
@@ -31472,6 +31485,52 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CV101">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="100"/>
+        <filter val="15"/>
+        <filter val="16"/>
+        <filter val="17"/>
+        <filter val="18"/>
+        <filter val="19"/>
+        <filter val="20"/>
+        <filter val="23"/>
+        <filter val="24"/>
+        <filter val="29"/>
+        <filter val="30"/>
+        <filter val="37"/>
+        <filter val="38"/>
+        <filter val="49"/>
+        <filter val="5"/>
+        <filter val="50"/>
+        <filter val="55"/>
+        <filter val="56"/>
+        <filter val="59"/>
+        <filter val="6"/>
+        <filter val="60"/>
+        <filter val="81"/>
+        <filter val="82"/>
+        <filter val="83"/>
+        <filter val="84"/>
+        <filter val="85"/>
+        <filter val="86"/>
+        <filter val="87"/>
+        <filter val="88"/>
+        <filter val="89"/>
+        <filter val="90"/>
+        <filter val="91"/>
+        <filter val="92"/>
+        <filter val="93"/>
+        <filter val="94"/>
+        <filter val="95"/>
+        <filter val="96"/>
+        <filter val="97"/>
+        <filter val="98"/>
+        <filter val="99"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:CU101">
     <sortCondition ref="A2:A101"/>
   </sortState>
@@ -31488,7 +31547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CW100"/>
   <sheetViews>
-    <sheetView topLeftCell="CK1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
